--- a/latest strings.xlsx
+++ b/latest strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkC#\Ei_Dimension\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8907F1E-3663-4F06-B756-D593848ABE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F45CBC4-68C6-4187-A025-18BA93BEF947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{15C89055-9C32-492D-BB65-CCF0B90D7398}"/>
+    <workbookView xWindow="7725" yWindow="4335" windowWidth="14790" windowHeight="14940" xr2:uid="{15C89055-9C32-492D-BB65-CCF0B90D7398}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>WellSel_CustomizePlate</t>
   </si>
   <si>
     <t>Customize Plate</t>
+  </si>
+  <si>
+    <t>PlateCustomization_PlateCustomization</t>
+  </si>
+  <si>
+    <t>Plate Customization</t>
+  </si>
+  <si>
+    <t>PlateCustomization_DACCurrentLimit</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>PlateCustomization_FinalizedZPosition</t>
+  </si>
+  <si>
+    <t>Final Z Position</t>
+  </si>
+  <si>
+    <t>PlateCustomization_InitialZPosition</t>
+  </si>
+  <si>
+    <t>Initial Z Position</t>
+  </si>
+  <si>
+    <t>PlateCustomization_ZStep</t>
+  </si>
+  <si>
+    <t>Motor Step</t>
+  </si>
+  <si>
+    <t>PlateCustomization_TunePlate</t>
+  </si>
+  <si>
+    <t>Start Plate Tuning</t>
   </si>
 </sst>
 </file>
@@ -390,15 +426,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A245EE20-B406-4A1E-94B4-89C5F5AF1CA9}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -409,6 +446,54 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/latest strings.xlsx
+++ b/latest strings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkC#\Ei_Dimension\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F45CBC4-68C6-4187-A025-18BA93BEF947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0822ABA-FC4F-41E0-9C95-C247AC97FEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7725" yWindow="4335" windowWidth="14790" windowHeight="14940" xr2:uid="{15C89055-9C32-492D-BB65-CCF0B90D7398}"/>
   </bookViews>
@@ -56,35 +56,46 @@
     <t>PlateCustomization_FinalizedZPosition</t>
   </si>
   <si>
-    <t>Final Z Position</t>
-  </si>
-  <si>
     <t>PlateCustomization_InitialZPosition</t>
   </si>
   <si>
-    <t>Initial Z Position</t>
-  </si>
-  <si>
     <t>PlateCustomization_ZStep</t>
   </si>
   <si>
-    <t>Motor Step</t>
-  </si>
-  <si>
     <t>PlateCustomization_TunePlate</t>
   </si>
   <si>
-    <t>Start Plate Tuning</t>
+    <t>Gap Steps</t>
+  </si>
+  <si>
+    <t>Downstroke Steps</t>
+  </si>
+  <si>
+    <t>Upstroke Steps</t>
+  </si>
+  <si>
+    <t>Find Plate Depth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -110,8 +121,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,7 +442,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +471,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -466,35 +479,36 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/latest strings.xlsx
+++ b/latest strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkC#\Ei_Dimension\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0822ABA-FC4F-41E0-9C95-C247AC97FEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A09A8D-CB40-4920-8C19-D5721E64D810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7725" yWindow="4335" windowWidth="14790" windowHeight="14940" xr2:uid="{15C89055-9C32-492D-BB65-CCF0B90D7398}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>WellSel_CustomizePlate</t>
   </si>
@@ -75,6 +75,36 @@
   </si>
   <si>
     <t>Find Plate Depth</t>
+  </si>
+  <si>
+    <t>Flash saved</t>
+  </si>
+  <si>
+    <t>Please wait, until the system is Idle\nand try again</t>
+  </si>
+  <si>
+    <t>Flash Restored</t>
+  </si>
+  <si>
+    <t>Flash Restored to Factory Defaults</t>
+  </si>
+  <si>
+    <t>Components_SetMaxPressure</t>
+  </si>
+  <si>
+    <t>Set Max Pressure</t>
+  </si>
+  <si>
+    <t>Dashboard_Pressure_Mon_Warning</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>Dashboard_Pressure_Mon_Units</t>
+  </si>
+  <si>
+    <t>Units:</t>
   </si>
 </sst>
 </file>
@@ -439,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A245EE20-B406-4A1E-94B4-89C5F5AF1CA9}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,6 +537,50 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/latest strings.xlsx
+++ b/latest strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkC#\Ei_Dimension\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A09A8D-CB40-4920-8C19-D5721E64D810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AB36D0-3C6B-4CCF-8715-3BC4989BEC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7725" yWindow="4335" windowWidth="14790" windowHeight="14940" xr2:uid="{15C89055-9C32-492D-BB65-CCF0B90D7398}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>WellSel_CustomizePlate</t>
   </si>
@@ -87,12 +87,6 @@
   </si>
   <si>
     <t>Flash Restored to Factory Defaults</t>
-  </si>
-  <si>
-    <t>Components_SetMaxPressure</t>
-  </si>
-  <si>
-    <t>Set Max Pressure</t>
   </si>
   <si>
     <t>Dashboard_Pressure_Mon_Warning</t>
@@ -472,7 +466,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,28 +551,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/latest strings.xlsx
+++ b/latest strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkC#\Ei_Dimension\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AB36D0-3C6B-4CCF-8715-3BC4989BEC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACD6167-DA76-4408-BDE7-0B4A73C1D24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7725" yWindow="4335" windowWidth="14790" windowHeight="14940" xr2:uid="{15C89055-9C32-492D-BB65-CCF0B90D7398}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>WellSel_CustomizePlate</t>
   </si>
@@ -99,6 +99,72 @@
   </si>
   <si>
     <t>Units:</t>
+  </si>
+  <si>
+    <t>PlateCustomization_Delete_Plate</t>
+  </si>
+  <si>
+    <t>PlateCustomization_Load_Plate</t>
+  </si>
+  <si>
+    <t>PlateCustomization_Save_Plate</t>
+  </si>
+  <si>
+    <t>Load_x000D_ Plate</t>
+  </si>
+  <si>
+    <t>Save_x000D_ Plate</t>
+  </si>
+  <si>
+    <t>Delete_x000D_ Plate</t>
+  </si>
+  <si>
+    <t>PlateCustVM</t>
+  </si>
+  <si>
+    <t>A plate with name [] already exists</t>
+  </si>
+  <si>
+    <t>Ch_Offset_GreenAVoltage</t>
+  </si>
+  <si>
+    <t>Green A_x000D_ Voltage</t>
+  </si>
+  <si>
+    <t>PlateCustomization_Current</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>PlateCustomization_Measured</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>PlateCustomization_Selected</t>
+  </si>
+  <si>
+    <t>Selected</t>
+  </si>
+  <si>
+    <t>Notification_Plate_Save_Problem</t>
+  </si>
+  <si>
+    <t>There was a problem saving the Plate</t>
+  </si>
+  <si>
+    <t>Notification_NoPlateMeasured</t>
+  </si>
+  <si>
+    <t>Please Tune the Plate first</t>
+  </si>
+  <si>
+    <t>Notification_No_Plate_Selected</t>
+  </si>
+  <si>
+    <t>No Plate selected</t>
   </si>
 </sst>
 </file>
@@ -145,10 +211,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A245EE20-B406-4A1E-94B4-89C5F5AF1CA9}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A25" sqref="A25:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,6 +636,94 @@
         <v>21</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/latest strings.xlsx
+++ b/latest strings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkC#\Ei_Dimension\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACD6167-DA76-4408-BDE7-0B4A73C1D24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DCBA27-D0B1-4EF0-9FB7-D079B928CBE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7725" yWindow="4335" windowWidth="14790" windowHeight="14940" xr2:uid="{15C89055-9C32-492D-BB65-CCF0B90D7398}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{15C89055-9C32-492D-BB65-CCF0B90D7398}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>WellSel_CustomizePlate</t>
   </si>
@@ -165,13 +165,89 @@
   </si>
   <si>
     <t>No Plate selected</t>
+  </si>
+  <si>
+    <t>定制孔板</t>
+  </si>
+  <si>
+    <t>孔板定制</t>
+  </si>
+  <si>
+    <t>电流限制</t>
+  </si>
+  <si>
+    <t>上冲程步伐</t>
+  </si>
+  <si>
+    <t>下冲程步伐</t>
+  </si>
+  <si>
+    <t>间隙步伐</t>
+  </si>
+  <si>
+    <t>查找孔板深度</t>
+  </si>
+  <si>
+    <t>请稍候，直到系统空闲，然后重试</t>
+  </si>
+  <si>
+    <t>闪存已保存</t>
+  </si>
+  <si>
+    <t>闪存恢复</t>
+  </si>
+  <si>
+    <t>闪存恢复为出厂设置</t>
+  </si>
+  <si>
+    <t>警告</t>
+  </si>
+  <si>
+    <t>单位：</t>
+  </si>
+  <si>
+    <t>删除
+孔板</t>
+  </si>
+  <si>
+    <t>加载
+孔板</t>
+  </si>
+  <si>
+    <t>保存
+孔板</t>
+  </si>
+  <si>
+    <t>名称为[]的孔板已存在</t>
+  </si>
+  <si>
+    <t>绿光 A
+电压</t>
+  </si>
+  <si>
+    <t>电流</t>
+  </si>
+  <si>
+    <t>实测</t>
+  </si>
+  <si>
+    <t>已选</t>
+  </si>
+  <si>
+    <t>保存孔板时出现问题</t>
+  </si>
+  <si>
+    <t>请先调整孔板</t>
+  </si>
+  <si>
+    <t>未选择孔板</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,13 +266,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -208,18 +296,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -532,196 +626,278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A245EE20-B406-4A1E-94B4-89C5F5AF1CA9}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:C25"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="52.85546875" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
       <c r="B21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
       <c r="B22" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
       <c r="B23" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>40</v>
       </c>
       <c r="B24" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>42</v>
       </c>
       <c r="B25" t="s">
         <v>43</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
